--- a/Data/Data_geology/Otorowiri_Model_Geology.xlsx
+++ b/Data/Data_geology/Otorowiri_Model_Geology.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/00105010_uwa_edu_au/Documents/Documents/Faults and Barriers Projects/Arrowsmith/Model parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00105010\Projects\Otorowiri\data\data_geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E93161-D5C3-47A3-9EBA-70C4D8CEA120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CA4B48-E1C2-4A8D-8DDB-1F4FD2254149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{F0865505-9651-490B-8489-90EAB7C11998}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{F0865505-9651-490B-8489-90EAB7C11998}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="94">
   <si>
     <t>Dongara Line DL3A</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>Drilling_depth_m</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -3387,9 +3390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B9F143-9958-4935-B8DD-39F9BB800345}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4951,8 +4952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3CA644-E985-404A-BE16-92C33830C9B0}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4965,7 +4966,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>42</v>

--- a/Data/Data_geology/Otorowiri_Model_Geology.xlsx
+++ b/Data/Data_geology/Otorowiri_Model_Geology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00105010\Projects\Otorowiri\data\data_geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CA4B48-E1C2-4A8D-8DDB-1F4FD2254149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D77BE1-9AFF-4178-9516-2D70359845B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{F0865505-9651-490B-8489-90EAB7C11998}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F0865505-9651-490B-8489-90EAB7C11998}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
@@ -423,9 +423,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -463,7 +463,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -569,7 +569,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -711,7 +711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -722,7 +722,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3390,7 +3390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B9F143-9958-4935-B8DD-39F9BB800345}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3399,11 +3401,12 @@
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>42</v>
@@ -4952,9 +4955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3CA644-E985-404A-BE16-92C33830C9B0}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Data/Data_geology/Otorowiri_Model_Geology.xlsx
+++ b/Data/Data_geology/Otorowiri_Model_Geology.xlsx
@@ -8,16 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00105010\Projects\Otorowiri\data\data_geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D77BE1-9AFF-4178-9516-2D70359845B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA952B40-102B-48C5-9690-4382A37EC89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F0865505-9651-490B-8489-90EAB7C11998}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="6" xr2:uid="{F0865505-9651-490B-8489-90EAB7C11998}"/>
   </bookViews>
   <sheets>
-    <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="All_clean" sheetId="1" r:id="rId2"/>
-    <sheet name="mAHD" sheetId="3" r:id="rId3"/>
-    <sheet name="mbgl" sheetId="4" r:id="rId4"/>
+    <sheet name="Names" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId2"/>
+    <sheet name="strat" sheetId="6" r:id="rId3"/>
+    <sheet name="All_clean" sheetId="1" r:id="rId4"/>
+    <sheet name="mAHD_original" sheetId="3" r:id="rId5"/>
+    <sheet name="mAHD" sheetId="8" r:id="rId6"/>
+    <sheet name="geo_bores" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId8"/>
+    <sheet name="pumping_bores" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">geo_bores!$A$1:$S$93</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="125">
   <si>
     <t>Dongara Line DL3A</t>
   </si>
@@ -321,13 +329,106 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>lithid</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Yarragadee</t>
+  </si>
+  <si>
+    <t>Data_type</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>Editted</t>
+  </si>
+  <si>
+    <t>HB1 table</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Ground_mAHD</t>
+  </si>
+  <si>
+    <t>Otorowiri Outcrop 1</t>
+  </si>
+  <si>
+    <t>Otorowiri Outcrop 2</t>
+  </si>
+  <si>
+    <t>Otorowiri Outcrop 3</t>
+  </si>
+  <si>
+    <t>Otorowiri Outcrop 4</t>
+  </si>
+  <si>
+    <t>Otorowiri Outcrop 5</t>
+  </si>
+  <si>
+    <t>Otorowiri Outcrop 6</t>
+  </si>
+  <si>
+    <t>Otorowiri Outcrop 7</t>
+  </si>
+  <si>
+    <t>Otorowiri Outcrop 8</t>
+  </si>
+  <si>
+    <t>Otorowiri Outcrop 9</t>
+  </si>
+  <si>
+    <t>Otorowiri Outcrop 10</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Mapping Kpo outcrop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,13 +459,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -390,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,6 +549,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,7 +908,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -904,11 +1090,417 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7437451A-F115-4C88-B185-DC683C21C408}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4789AD-4A52-4EB4-A331-3432CA489414}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="6">
+        <v>255</v>
+      </c>
+      <c r="D2" s="6">
+        <v>255</v>
+      </c>
+      <c r="E2" s="6">
+        <v>255</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="6">
+        <v>172</v>
+      </c>
+      <c r="D3" s="6">
+        <v>186</v>
+      </c>
+      <c r="E3" s="6">
+        <v>242</v>
+      </c>
+      <c r="F3" s="17">
+        <v>-175.74074074074073</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <f>F2-F3</f>
+        <v>175.74074074074073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="6">
+        <v>117</v>
+      </c>
+      <c r="D4" s="6">
+        <v>128</v>
+      </c>
+      <c r="E4" s="6">
+        <v>229</v>
+      </c>
+      <c r="F4" s="17">
+        <v>-235.0625</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18">
+        <f>F3-F4</f>
+        <v>59.321759259259267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="6">
+        <v>198</v>
+      </c>
+      <c r="D5" s="6">
+        <v>217</v>
+      </c>
+      <c r="E5" s="6">
+        <v>240</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-436.82608695652175</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" ref="H5:H14" si="0">F4-F5</f>
+        <v>201.76358695652175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6">
+        <v>141</v>
+      </c>
+      <c r="D6" s="6">
+        <v>179</v>
+      </c>
+      <c r="E6" s="6">
+        <v>227</v>
+      </c>
+      <c r="F6" s="17">
+        <v>-820</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="18">
+        <f t="shared" si="0"/>
+        <v>383.17391304347825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="6">
+        <v>86</v>
+      </c>
+      <c r="D7" s="6">
+        <v>140</v>
+      </c>
+      <c r="E7" s="6">
+        <v>209</v>
+      </c>
+      <c r="F7" s="17">
+        <v>-1097.5999999999999</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>277.59999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>112</v>
+      </c>
+      <c r="E8" s="6">
+        <v>193</v>
+      </c>
+      <c r="F8" s="17">
+        <v>-1683.3333333333333</v>
+      </c>
+      <c r="G8" s="7">
+        <v>5</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" si="0"/>
+        <v>585.73333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>163</v>
+      </c>
+      <c r="E9" s="6">
+        <v>142</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-1937.8</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="0"/>
+        <v>254.4666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>158</v>
+      </c>
+      <c r="E10" s="6">
+        <v>180</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-2428</v>
+      </c>
+      <c r="G10" s="7">
+        <v>7</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="0"/>
+        <v>490.20000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>135</v>
+      </c>
+      <c r="E11" s="6">
+        <v>165</v>
+      </c>
+      <c r="F11" s="17">
+        <v>-3045</v>
+      </c>
+      <c r="G11" s="7">
+        <v>8</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="0"/>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="6">
+        <v>208</v>
+      </c>
+      <c r="D12" s="6">
+        <v>174</v>
+      </c>
+      <c r="E12" s="6">
+        <v>207</v>
+      </c>
+      <c r="F12" s="17">
+        <v>-3402.6666666666665</v>
+      </c>
+      <c r="G12" s="7">
+        <v>9</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="0"/>
+        <v>357.66666666666652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="6">
+        <v>177</v>
+      </c>
+      <c r="D13" s="6">
+        <v>129</v>
+      </c>
+      <c r="E13" s="6">
+        <v>240</v>
+      </c>
+      <c r="F13" s="17">
+        <v>-3509.75</v>
+      </c>
+      <c r="G13" s="7">
+        <v>10</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="0"/>
+        <v>107.08333333333348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="6">
+        <v>167</v>
+      </c>
+      <c r="D14" s="6">
+        <v>93</v>
+      </c>
+      <c r="E14" s="6">
+        <v>215</v>
+      </c>
+      <c r="F14" s="17">
+        <v>-3878.5</v>
+      </c>
+      <c r="G14" s="7">
+        <v>11</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="0"/>
+        <v>368.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C69BB7-902B-4A80-BA13-B902F7E5CBCA}">
   <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3386,12 +3978,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B9F143-9958-4935-B8DD-39F9BB800345}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4951,21 +5543,1496 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED891851-15F7-4B61-A48B-7C8AA2AA41A2}">
+  <dimension ref="A1:Q42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
+        <v>356649</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6740424</v>
+      </c>
+      <c r="D2" s="3">
+        <v>209</v>
+      </c>
+      <c r="E2" s="3">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3">
+        <v>42</v>
+      </c>
+      <c r="G2" s="3">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <v>359206</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6742469</v>
+      </c>
+      <c r="D3" s="3">
+        <v>256</v>
+      </c>
+      <c r="E3" s="3">
+        <v>154</v>
+      </c>
+      <c r="F3" s="3">
+        <v>154</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3">
+        <v>358301</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6730642</v>
+      </c>
+      <c r="D4" s="3">
+        <v>311</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-241</v>
+      </c>
+      <c r="F4" s="3">
+        <v>204</v>
+      </c>
+      <c r="G4" s="3">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-229</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>360479</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6739524</v>
+      </c>
+      <c r="D5" s="3">
+        <v>228</v>
+      </c>
+      <c r="E5" s="3">
+        <v>121</v>
+      </c>
+      <c r="F5" s="3">
+        <v>121</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
+        <v>350894</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6739317</v>
+      </c>
+      <c r="D6" s="3">
+        <v>203</v>
+      </c>
+      <c r="E6" s="3">
+        <v>66</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>172</v>
+      </c>
+      <c r="H6" s="3">
+        <v>66</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>356027</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6741138</v>
+      </c>
+      <c r="D7" s="3">
+        <v>222</v>
+      </c>
+      <c r="E7" s="3">
+        <v>81</v>
+      </c>
+      <c r="F7" s="3">
+        <v>85</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>354316</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6741005</v>
+      </c>
+      <c r="D8" s="3">
+        <v>208</v>
+      </c>
+      <c r="E8" s="3">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3">
+        <v>355982</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6739543</v>
+      </c>
+      <c r="D9" s="3">
+        <v>227</v>
+      </c>
+      <c r="E9" s="3">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>354668</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6739238</v>
+      </c>
+      <c r="D10" s="3">
+        <v>218</v>
+      </c>
+      <c r="E10" s="3">
+        <v>59</v>
+      </c>
+      <c r="F10" s="3">
+        <v>66</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3">
+        <v>358794</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6738631</v>
+      </c>
+      <c r="D11" s="3">
+        <v>222</v>
+      </c>
+      <c r="E11" s="3">
+        <v>112</v>
+      </c>
+      <c r="F11" s="3">
+        <v>112</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
+        <v>355503</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6737076</v>
+      </c>
+      <c r="D12" s="3">
+        <v>272</v>
+      </c>
+      <c r="E12" s="3">
+        <v>48</v>
+      </c>
+      <c r="F12" s="3">
+        <v>77</v>
+      </c>
+      <c r="G12" s="3">
+        <v>50</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>354145</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6742933</v>
+      </c>
+      <c r="D13" s="3">
+        <v>265</v>
+      </c>
+      <c r="E13" s="3">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>351540</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6740261</v>
+      </c>
+      <c r="D14" s="3">
+        <v>222</v>
+      </c>
+      <c r="E14" s="3">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>155</v>
+      </c>
+      <c r="H14" s="3">
+        <v>21</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <v>351633</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6743138</v>
+      </c>
+      <c r="D15" s="3">
+        <v>276</v>
+      </c>
+      <c r="E15" s="3">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3">
+        <v>182</v>
+      </c>
+      <c r="G15" s="3">
+        <v>127</v>
+      </c>
+      <c r="H15" s="3">
+        <v>32</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3">
+        <v>351752</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6735088</v>
+      </c>
+      <c r="D16" s="3">
+        <v>184</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>-57</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3">
+        <v>352933</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6744727</v>
+      </c>
+      <c r="D17" s="3">
+        <v>283</v>
+      </c>
+      <c r="E17" s="3">
+        <v>38</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>42</v>
+      </c>
+      <c r="H17" s="3">
+        <v>38</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3">
+        <v>353233</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6747056</v>
+      </c>
+      <c r="D18" s="3">
+        <v>267</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-38</v>
+      </c>
+      <c r="F18" s="3">
+        <v>108</v>
+      </c>
+      <c r="G18" s="3">
+        <v>38</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-38</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3">
+        <v>355488</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6732904</v>
+      </c>
+      <c r="D19" s="3">
+        <v>306</v>
+      </c>
+      <c r="E19" s="3">
+        <v>50</v>
+      </c>
+      <c r="F19" s="3">
+        <v>102</v>
+      </c>
+      <c r="G19" s="3">
+        <v>70</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3">
+        <v>362383</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6720858</v>
+      </c>
+      <c r="D20" s="3">
+        <v>280</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-23</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-23</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3">
+        <v>349202</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6746453</v>
+      </c>
+      <c r="D21" s="3">
+        <v>258</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-45</v>
+      </c>
+      <c r="F21" s="3">
+        <v>173</v>
+      </c>
+      <c r="G21" s="3">
+        <v>121</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-45</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3">
+        <v>350163</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6736093</v>
+      </c>
+      <c r="D22" s="3">
+        <v>169</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-52</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>-52</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3">
+        <v>359750</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6735766</v>
+      </c>
+      <c r="D23" s="3">
+        <v>231</v>
+      </c>
+      <c r="E23" s="3">
+        <v>72</v>
+      </c>
+      <c r="F23" s="3">
+        <v>73</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3">
+        <v>341210</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6691431</v>
+      </c>
+      <c r="D24" s="3">
+        <v>193</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-7</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <v>-7</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3">
+        <v>333143</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6752581</v>
+      </c>
+      <c r="D25" s="3">
+        <v>128</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-353</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>-356</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3">
+        <v>344970</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6752754</v>
+      </c>
+      <c r="D26" s="3">
+        <v>258</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-243</v>
+      </c>
+      <c r="F26" s="3">
+        <v>233</v>
+      </c>
+      <c r="G26" s="3">
+        <v>168</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-250</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3">
+        <v>356890</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6752577</v>
+      </c>
+      <c r="D27" s="3">
+        <v>299</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>70</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3">
+        <v>334610</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6721529</v>
+      </c>
+      <c r="D28" s="3">
+        <v>107</v>
+      </c>
+      <c r="E28" s="3">
+        <v>-3746</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <v>-113</v>
+      </c>
+      <c r="I28" s="3">
+        <v>-506</v>
+      </c>
+      <c r="J28" s="3">
+        <v>-905</v>
+      </c>
+      <c r="K28" s="3">
+        <v>-1535</v>
+      </c>
+      <c r="L28" s="3">
+        <v>-1606</v>
+      </c>
+      <c r="M28" s="3">
+        <v>-2401</v>
+      </c>
+      <c r="N28" s="3">
+        <v>-3256</v>
+      </c>
+      <c r="O28" s="3">
+        <v>-3455</v>
+      </c>
+      <c r="P28" s="3">
+        <v>-3636</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>-3746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="3">
+        <v>367798</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6695215</v>
+      </c>
+      <c r="D29" s="3">
+        <v>280</v>
+      </c>
+      <c r="E29" s="3">
+        <v>210</v>
+      </c>
+      <c r="F29" s="3">
+        <v>210</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3">
+        <v>367807</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6695161</v>
+      </c>
+      <c r="D30" s="3">
+        <v>281</v>
+      </c>
+      <c r="E30" s="3">
+        <v>176</v>
+      </c>
+      <c r="F30" s="3">
+        <v>176</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>338583</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6727776</v>
+      </c>
+      <c r="D31" s="3">
+        <v>123</v>
+      </c>
+      <c r="E31" s="3">
+        <v>-4056</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <v>-201</v>
+      </c>
+      <c r="I31" s="3">
+        <v>-442</v>
+      </c>
+      <c r="J31" s="3">
+        <v>-1045</v>
+      </c>
+      <c r="K31" s="3">
+        <v>-1627</v>
+      </c>
+      <c r="L31" s="3">
+        <v>-1734</v>
+      </c>
+      <c r="M31" s="3">
+        <v>-2187</v>
+      </c>
+      <c r="N31" s="3">
+        <v>-2855</v>
+      </c>
+      <c r="O31" s="3">
+        <v>-3132</v>
+      </c>
+      <c r="P31" s="3">
+        <v>-3279</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>-4056</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3">
+        <v>370634</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6702762</v>
+      </c>
+      <c r="D32" s="3">
+        <v>257</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-494</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-34</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-493</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3">
+        <v>364325</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6702687</v>
+      </c>
+      <c r="D33" s="3">
+        <v>264</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-498</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-114</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-216</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-496</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3">
+        <v>357884</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6702360</v>
+      </c>
+      <c r="D34" s="3">
+        <v>295</v>
+      </c>
+      <c r="E34" s="3">
+        <v>-467</v>
+      </c>
+      <c r="F34" s="3">
+        <v>-139</v>
+      </c>
+      <c r="G34" s="3">
+        <v>-233</v>
+      </c>
+      <c r="H34" s="3">
+        <v>-465</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>350593</v>
+      </c>
+      <c r="C35" s="3">
+        <v>6702012</v>
+      </c>
+      <c r="D35" s="3">
+        <v>254</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-538</v>
+      </c>
+      <c r="F35" s="3">
+        <v>38</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-42</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-493</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>344497</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6701564</v>
+      </c>
+      <c r="D36" s="3">
+        <v>201</v>
+      </c>
+      <c r="E36" s="3">
+        <v>-517</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
+        <v>-515</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3">
+        <v>338577</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6702915</v>
+      </c>
+      <c r="D37" s="3">
+        <v>139</v>
+      </c>
+      <c r="E37" s="3">
+        <v>-624</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
+        <v>-279</v>
+      </c>
+      <c r="K37" s="3">
+        <v>-621</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3">
+        <v>344612</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6749291</v>
+      </c>
+      <c r="D38" s="3">
+        <v>233</v>
+      </c>
+      <c r="E38" s="3">
+        <v>-4011</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3">
+        <v>-567</v>
+      </c>
+      <c r="I38" s="3">
+        <v>-979</v>
+      </c>
+      <c r="J38" s="3">
+        <v>-1302</v>
+      </c>
+      <c r="K38" s="3">
+        <v>-1786</v>
+      </c>
+      <c r="L38" s="3">
+        <v>-1825</v>
+      </c>
+      <c r="M38" s="3">
+        <v>-2571</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3">
+        <v>-3129</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>-3672</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3">
+        <v>344609</v>
+      </c>
+      <c r="C39" s="3">
+        <v>6749507</v>
+      </c>
+      <c r="D39" s="3">
+        <v>241</v>
+      </c>
+      <c r="E39" s="3">
+        <v>-3336</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11">
+        <v>-1782</v>
+      </c>
+      <c r="L39" s="3">
+        <v>-1843</v>
+      </c>
+      <c r="M39" s="3">
+        <v>-1849</v>
+      </c>
+      <c r="N39" s="3">
+        <v>-2553</v>
+      </c>
+      <c r="O39" s="3">
+        <v>-3150</v>
+      </c>
+      <c r="P39" s="3">
+        <v>-3291</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>-3336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="3">
+        <v>334872</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6749575</v>
+      </c>
+      <c r="D40" s="3">
+        <v>148</v>
+      </c>
+      <c r="E40" s="3">
+        <v>-192</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3">
+        <v>-192</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="3">
+        <v>363140</v>
+      </c>
+      <c r="C41" s="3">
+        <v>6720750</v>
+      </c>
+      <c r="D41" s="3">
+        <v>266</v>
+      </c>
+      <c r="E41" s="3">
+        <v>126</v>
+      </c>
+      <c r="F41" s="3">
+        <v>126</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3">
+        <v>336095</v>
+      </c>
+      <c r="C42" s="3">
+        <v>6743648</v>
+      </c>
+      <c r="D42" s="3">
+        <v>220</v>
+      </c>
+      <c r="E42" s="3">
+        <v>-3845</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
+        <v>-380</v>
+      </c>
+      <c r="I42" s="3">
+        <v>-670</v>
+      </c>
+      <c r="J42" s="3">
+        <v>-1135</v>
+      </c>
+      <c r="K42" s="3">
+        <v>-1686</v>
+      </c>
+      <c r="L42" s="3">
+        <v>-1757</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3CA644-E985-404A-BE16-92C33830C9B0}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="18" width="8.7265625" style="3"/>
+    <col min="4" max="4" width="15.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="19" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
@@ -4976,52 +7043,55 @@
         <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5031,1072 +7101,2933 @@
       <c r="C2" s="3">
         <v>6740424</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>167</v>
+      </c>
+      <c r="H2" s="3">
         <v>194</v>
       </c>
-      <c r="F2" s="3">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>356649</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6740424</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
         <v>167</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H3" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>359206</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6742469</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>359206</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6742469</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3">
+        <v>358301</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6730642</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>107</v>
+      </c>
+      <c r="H6" s="3">
+        <v>275</v>
+      </c>
+      <c r="I6" s="3">
+        <v>540</v>
+      </c>
+      <c r="M6" s="10">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3">
+        <v>358301</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6730642</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>107</v>
+      </c>
+      <c r="H7" s="3">
+        <v>275</v>
+      </c>
+      <c r="I7" s="3">
+        <v>540</v>
+      </c>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>360479</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6739524</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>360479</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6739524</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>350894</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6739317</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3">
+        <v>137</v>
+      </c>
+      <c r="M10" s="10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
+        <v>350894</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6739317</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3">
+        <v>137</v>
+      </c>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>356027</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6741138</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>356027</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6741138</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>354316</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6741005</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>354316</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6741005</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>355982</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6739543</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3">
+        <v>355982</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6739543</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3">
+        <v>354668</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6739238</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>354668</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6739238</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>358794</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6738631</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <v>358794</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6738631</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>355503</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6737076</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>195</v>
+      </c>
+      <c r="H22" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>355503</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6737076</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>195</v>
+      </c>
+      <c r="H23" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3">
+        <v>354145</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6742933</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3">
+        <v>354145</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6742933</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3">
+        <v>351540</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6740261</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>67</v>
+      </c>
+      <c r="I26" s="3">
+        <v>201</v>
+      </c>
+      <c r="M26" s="10">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3">
+        <v>351540</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6740261</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>67</v>
+      </c>
+      <c r="I27" s="3">
+        <v>201</v>
+      </c>
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3">
+        <v>351633</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6743138</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>94</v>
+      </c>
+      <c r="H28" s="3">
+        <v>149</v>
+      </c>
+      <c r="I28" s="3">
+        <v>244</v>
+      </c>
+      <c r="M28" s="10">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3">
+        <v>351633</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6743138</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>94</v>
+      </c>
+      <c r="H29" s="3">
+        <v>149</v>
+      </c>
+      <c r="I29" s="3">
+        <v>244</v>
+      </c>
+      <c r="M29" s="16"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3">
+        <v>351752</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6735088</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>241</v>
+      </c>
+      <c r="M30" s="10">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3">
+        <v>351752</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6735088</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>241</v>
+      </c>
+      <c r="M31" s="16"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3">
+        <v>352933</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6744727</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>183</v>
+      </c>
+      <c r="H32" s="3">
+        <v>241</v>
+      </c>
+      <c r="I32" s="3">
+        <v>244</v>
+      </c>
+      <c r="M32" s="10">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3">
+        <v>352933</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6744727</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>183</v>
+      </c>
+      <c r="H33" s="3">
+        <v>241</v>
+      </c>
+      <c r="I33" s="3">
+        <v>244</v>
+      </c>
+      <c r="M33" s="16"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3">
+        <v>353233</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6747056</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>159</v>
+      </c>
+      <c r="H34" s="3">
+        <v>229</v>
+      </c>
+      <c r="I34" s="3">
+        <v>305</v>
+      </c>
+      <c r="M34" s="10">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3">
+        <v>353233</v>
+      </c>
+      <c r="C35" s="3">
+        <v>6747056</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>159</v>
+      </c>
+      <c r="H35" s="3">
+        <v>229</v>
+      </c>
+      <c r="I35" s="3">
+        <v>305</v>
+      </c>
+      <c r="M35" s="16"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="3">
+        <v>355488</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6732904</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>204</v>
+      </c>
+      <c r="H36" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="3">
+        <v>355488</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6732904</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>204</v>
+      </c>
+      <c r="H37" s="3">
+        <v>236</v>
+      </c>
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="3">
+        <v>362383</v>
+      </c>
+      <c r="C38" s="3">
+        <v>6720858</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="3">
+        <v>362383</v>
+      </c>
+      <c r="C39" s="3">
+        <v>6720858</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3">
+        <v>349202</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6746453</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>85</v>
+      </c>
+      <c r="H40" s="3">
+        <v>137</v>
+      </c>
+      <c r="I40" s="3">
+        <v>303</v>
+      </c>
+      <c r="M40" s="10">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3">
+        <v>349202</v>
+      </c>
+      <c r="C41" s="3">
+        <v>6746453</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>85</v>
+      </c>
+      <c r="H41" s="3">
+        <v>137</v>
+      </c>
+      <c r="I41" s="3">
+        <v>303</v>
+      </c>
+      <c r="M41" s="16"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="3">
+        <v>350163</v>
+      </c>
+      <c r="C42" s="3">
+        <v>6736093</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>221</v>
+      </c>
+      <c r="M42" s="10">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="3">
+        <v>350163</v>
+      </c>
+      <c r="C43" s="3">
+        <v>6736093</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="21">
+        <v>0</v>
+      </c>
+      <c r="H43" s="21">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>221</v>
+      </c>
+      <c r="M43" s="16"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="3">
+        <v>359750</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6735766</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="3">
+        <v>359750</v>
+      </c>
+      <c r="C45" s="3">
+        <v>6735766</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>158</v>
+      </c>
+      <c r="M45" s="16"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="3">
+        <v>341210</v>
+      </c>
+      <c r="C46" s="3">
+        <v>6691431</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="3">
+        <v>341210</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6691431</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="21">
+        <v>0</v>
+      </c>
+      <c r="H47" s="21">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>200</v>
+      </c>
+      <c r="M47" s="16"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="3">
+        <v>333143</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6752581</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>484</v>
+      </c>
+      <c r="M48" s="10">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="3">
+        <v>333143</v>
+      </c>
+      <c r="C49" s="3">
+        <v>6752581</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="21">
+        <v>0</v>
+      </c>
+      <c r="H49" s="21">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>484</v>
+      </c>
+      <c r="M49" s="16"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="3">
+        <v>344970</v>
+      </c>
+      <c r="C50" s="3">
+        <v>6752754</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>25</v>
+      </c>
+      <c r="H50" s="3">
+        <v>90</v>
+      </c>
+      <c r="I50" s="3">
+        <v>511</v>
+      </c>
+      <c r="M50" s="10">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="3">
+        <v>344970</v>
+      </c>
+      <c r="C51" s="3">
+        <v>6752754</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>25</v>
+      </c>
+      <c r="H51" s="3">
+        <v>90</v>
+      </c>
+      <c r="I51" s="3">
+        <v>511</v>
+      </c>
+      <c r="M51" s="16"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="3">
+        <v>356890</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6752577</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>199</v>
+      </c>
+      <c r="H52" s="3">
+        <v>229</v>
+      </c>
+      <c r="I52" s="3">
+        <v>399</v>
+      </c>
+      <c r="M52" s="10">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="3">
+        <v>356890</v>
+      </c>
+      <c r="C53" s="3">
+        <v>6752577</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>199</v>
+      </c>
+      <c r="H53" s="3">
+        <v>229</v>
+      </c>
+      <c r="I53" s="3">
+        <v>399</v>
+      </c>
+      <c r="M53" s="16"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="3">
+        <v>334610</v>
+      </c>
+      <c r="C54" s="3">
+        <v>6721529</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>220</v>
+      </c>
+      <c r="J54" s="3">
+        <v>613</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1012</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1642</v>
+      </c>
+      <c r="M54" s="10">
+        <v>1642</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1713</v>
+      </c>
+      <c r="O54" s="3">
+        <v>2508</v>
+      </c>
+      <c r="P54" s="3">
+        <v>3363</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>3562</v>
+      </c>
+      <c r="R54" s="3">
+        <v>3743</v>
+      </c>
+      <c r="S54" s="3">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="3">
+        <v>334610</v>
+      </c>
+      <c r="C55" s="3">
+        <v>6721529</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="21">
+        <v>0</v>
+      </c>
+      <c r="H55" s="21">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>220</v>
+      </c>
+      <c r="J55" s="3">
+        <v>613</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1012</v>
+      </c>
+      <c r="L55" s="3">
+        <v>1642</v>
+      </c>
+      <c r="M55" s="16"/>
+      <c r="N55" s="3">
+        <v>1713</v>
+      </c>
+      <c r="O55" s="3">
+        <v>2508</v>
+      </c>
+      <c r="P55" s="3">
+        <v>3363</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>3562</v>
+      </c>
+      <c r="R55" s="3">
+        <v>3743</v>
+      </c>
+      <c r="S55" s="3">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="3">
+        <v>367798</v>
+      </c>
+      <c r="C56" s="3">
+        <v>6695215</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="3">
+        <v>367798</v>
+      </c>
+      <c r="C57" s="3">
+        <v>6695215</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="3">
+        <v>367807</v>
+      </c>
+      <c r="C58" s="3">
+        <v>6695161</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="3">
+        <v>367807</v>
+      </c>
+      <c r="C59" s="3">
+        <v>6695161</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="3">
+        <v>338583</v>
+      </c>
+      <c r="C60" s="3">
+        <v>6727776</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>324</v>
+      </c>
+      <c r="J60" s="3">
+        <v>565</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1168</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1750</v>
+      </c>
+      <c r="M60" s="10">
+        <v>1750</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1857</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2310</v>
+      </c>
+      <c r="P60" s="3">
+        <v>2978</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>3255</v>
+      </c>
+      <c r="R60" s="3">
+        <v>3402</v>
+      </c>
+      <c r="S60" s="3">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="3">
+        <v>338583</v>
+      </c>
+      <c r="C61" s="3">
+        <v>6727776</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="21">
+        <v>0</v>
+      </c>
+      <c r="H61" s="21">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>324</v>
+      </c>
+      <c r="J61" s="3">
+        <v>565</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1168</v>
+      </c>
+      <c r="L61" s="3">
+        <v>1750</v>
+      </c>
+      <c r="M61" s="16"/>
+      <c r="N61" s="3">
+        <v>1857</v>
+      </c>
+      <c r="O61" s="3">
+        <v>2310</v>
+      </c>
+      <c r="P61" s="3">
+        <v>2978</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>3255</v>
+      </c>
+      <c r="R61" s="3">
+        <v>3402</v>
+      </c>
+      <c r="S61" s="3">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="3">
+        <v>370634</v>
+      </c>
+      <c r="C62" s="3">
+        <v>6702762</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>291</v>
+      </c>
+      <c r="H62" s="3">
+        <v>357</v>
+      </c>
+      <c r="I62" s="3">
+        <v>750</v>
+      </c>
+      <c r="M62" s="10">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="3">
+        <v>370634</v>
+      </c>
+      <c r="C63" s="3">
+        <v>6702762</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>291</v>
+      </c>
+      <c r="H63" s="3">
+        <v>357</v>
+      </c>
+      <c r="I63" s="3">
+        <v>750</v>
+      </c>
+      <c r="M63" s="16"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="3">
+        <v>364325</v>
+      </c>
+      <c r="C64" s="3">
+        <v>6702687</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>378</v>
+      </c>
+      <c r="H64" s="3">
+        <v>480</v>
+      </c>
+      <c r="I64" s="3">
+        <v>760</v>
+      </c>
+      <c r="M64" s="10">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="3">
+        <v>364325</v>
+      </c>
+      <c r="C65" s="3">
+        <v>6702687</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>378</v>
+      </c>
+      <c r="H65" s="3">
+        <v>480</v>
+      </c>
+      <c r="I65" s="3">
+        <v>760</v>
+      </c>
+      <c r="M65" s="16"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="3">
+        <v>357884</v>
+      </c>
+      <c r="C66" s="3">
+        <v>6702360</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>434</v>
+      </c>
+      <c r="H66" s="3">
+        <v>528</v>
+      </c>
+      <c r="I66" s="3">
+        <v>760</v>
+      </c>
+      <c r="M66" s="10">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="3">
+        <v>357884</v>
+      </c>
+      <c r="C67" s="3">
+        <v>6702360</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>434</v>
+      </c>
+      <c r="H67" s="3">
+        <v>528</v>
+      </c>
+      <c r="I67" s="3">
+        <v>760</v>
+      </c>
+      <c r="M67" s="16"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="3">
+        <v>350593</v>
+      </c>
+      <c r="C68" s="3">
+        <v>6702012</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>216</v>
+      </c>
+      <c r="H68" s="3">
+        <v>296</v>
+      </c>
+      <c r="I68" s="3">
+        <v>747</v>
+      </c>
+      <c r="M68" s="10">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="3">
+        <v>350593</v>
+      </c>
+      <c r="C69" s="3">
+        <v>6702012</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>216</v>
+      </c>
+      <c r="H69" s="3">
+        <v>296</v>
+      </c>
+      <c r="I69" s="3">
+        <v>747</v>
+      </c>
+      <c r="M69" s="16"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="3">
+        <v>344497</v>
+      </c>
+      <c r="C70" s="3">
+        <v>6701564</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>716</v>
+      </c>
+      <c r="M70" s="10">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="3">
+        <v>344497</v>
+      </c>
+      <c r="C71" s="3">
+        <v>6701564</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="21">
+        <v>0</v>
+      </c>
+      <c r="H71" s="21">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3">
+        <v>716</v>
+      </c>
+      <c r="M71" s="16"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="3">
+        <v>338577</v>
+      </c>
+      <c r="C72" s="3">
+        <v>6702915</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <v>418</v>
+      </c>
+      <c r="L72" s="3">
+        <v>760</v>
+      </c>
+      <c r="M72" s="10">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="3">
+        <v>338577</v>
+      </c>
+      <c r="C73" s="3">
+        <v>6702915</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73" s="21">
+        <v>0</v>
+      </c>
+      <c r="H73" s="21">
+        <v>0</v>
+      </c>
+      <c r="I73" s="21">
+        <v>0</v>
+      </c>
+      <c r="J73" s="21">
+        <v>0</v>
+      </c>
+      <c r="K73" s="3">
+        <v>418</v>
+      </c>
+      <c r="L73" s="3">
+        <v>760</v>
+      </c>
+      <c r="M73" s="16"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="3">
+        <v>344612</v>
+      </c>
+      <c r="C74" s="3">
+        <v>6749291</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3">
+        <v>800</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1212</v>
+      </c>
+      <c r="K74" s="3">
+        <v>1535</v>
+      </c>
+      <c r="L74" s="3">
+        <v>2019</v>
+      </c>
+      <c r="M74" s="10">
+        <v>2019</v>
+      </c>
+      <c r="N74" s="3">
+        <v>2058</v>
+      </c>
+      <c r="O74" s="3">
+        <v>2804</v>
+      </c>
+      <c r="R74" s="3">
+        <v>3362</v>
+      </c>
+      <c r="S74" s="3">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="3">
+        <v>344612</v>
+      </c>
+      <c r="C75" s="3">
+        <v>6749291</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3">
+        <v>800</v>
+      </c>
+      <c r="J75" s="3">
+        <v>1212</v>
+      </c>
+      <c r="K75" s="3">
+        <v>1535</v>
+      </c>
+      <c r="L75" s="3">
+        <v>2019</v>
+      </c>
+      <c r="M75" s="16"/>
+      <c r="N75" s="3">
+        <v>2058</v>
+      </c>
+      <c r="O75" s="3">
+        <v>2804</v>
+      </c>
+      <c r="R75" s="3">
+        <v>3362</v>
+      </c>
+      <c r="S75" s="3">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="3">
+        <v>344609</v>
+      </c>
+      <c r="C76" s="3">
+        <v>6749507</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="11">
+        <v>2023</v>
+      </c>
+      <c r="M76" s="11">
+        <v>2023</v>
+      </c>
+      <c r="N76" s="3">
+        <v>2084</v>
+      </c>
+      <c r="O76" s="3">
+        <v>2090</v>
+      </c>
+      <c r="P76" s="3">
+        <v>2794</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>3391</v>
+      </c>
+      <c r="R76" s="3">
+        <v>3532</v>
+      </c>
+      <c r="S76" s="3">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="3">
+        <v>344609</v>
+      </c>
+      <c r="C77" s="3">
+        <v>6749507</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="16">
+        <v>2023</v>
+      </c>
+      <c r="M77" s="16"/>
+      <c r="N77" s="3">
+        <v>2084</v>
+      </c>
+      <c r="O77" s="3">
+        <v>2090</v>
+      </c>
+      <c r="P77" s="3">
+        <v>2794</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>3391</v>
+      </c>
+      <c r="R77" s="3">
+        <v>3532</v>
+      </c>
+      <c r="S77" s="3">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="3">
+        <v>334872</v>
+      </c>
+      <c r="C78" s="3">
+        <v>6749575</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3">
+        <v>340</v>
+      </c>
+      <c r="M78" s="10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="3">
+        <v>334872</v>
+      </c>
+      <c r="C79" s="3">
+        <v>6749575</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="21">
+        <v>0</v>
+      </c>
+      <c r="H79" s="21">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3">
+        <v>340</v>
+      </c>
+      <c r="M79" s="16"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="3">
+        <v>363140</v>
+      </c>
+      <c r="C80" s="3">
+        <v>6720750</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="3">
+        <v>363140</v>
+      </c>
+      <c r="C81" s="3">
+        <v>6720750</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>140</v>
+      </c>
+      <c r="M81" s="16"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="3">
+        <v>336095</v>
+      </c>
+      <c r="C82" s="3">
+        <v>6743648</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3">
+        <v>600</v>
+      </c>
+      <c r="J82" s="3">
+        <v>890</v>
+      </c>
+      <c r="K82" s="3">
+        <v>1355</v>
+      </c>
+      <c r="L82" s="3">
+        <v>1906</v>
+      </c>
+      <c r="M82" s="10">
+        <v>1906</v>
+      </c>
+      <c r="N82" s="3">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="3">
+        <v>336095</v>
+      </c>
+      <c r="C83" s="3">
+        <v>6743648</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="21">
+        <v>0</v>
+      </c>
+      <c r="H83" s="21">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>890</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1355</v>
+      </c>
+      <c r="L83" s="3">
+        <v>1906</v>
+      </c>
+      <c r="M83" s="16"/>
+      <c r="N83" s="3">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="3">
+        <v>342539.55494708114</v>
+      </c>
+      <c r="C84" s="3">
+        <v>6750251.6843969533</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="21">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="3">
+        <v>345211.09654199297</v>
+      </c>
+      <c r="C85" s="3">
+        <v>6743396.3721350217</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="21">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" s="3">
+        <v>351951.11920963583</v>
+      </c>
+      <c r="C86" s="3">
+        <v>6739080.7956553698</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="21">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="3">
+        <v>351010.48132491135</v>
+      </c>
+      <c r="C87" s="3">
+        <v>6731143.3733528964</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="21">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" s="3">
+        <v>347950.40325725434</v>
+      </c>
+      <c r="C88" s="3">
+        <v>6725421.7757437639</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="21">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89" s="3">
+        <v>347144.50673372275</v>
+      </c>
+      <c r="C89" s="3">
+        <v>6719653.6056941263</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="21">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="3">
+        <v>347014.36965068092</v>
+      </c>
+      <c r="C90" s="3">
+        <v>6717412.7689635418</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="21">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" s="3">
+        <v>346859.77687185229</v>
+      </c>
+      <c r="C91" s="3">
+        <v>6711098.0113305505</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="21">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="3">
+        <v>346606.65979857568</v>
+      </c>
+      <c r="C92" s="3">
+        <v>6706141.9214928104</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="21">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" s="3">
+        <v>350302.14635974809</v>
+      </c>
+      <c r="C93" s="3">
+        <v>6693981.3572777295</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="21">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S93" xr:uid="{8D3CA644-E985-404A-BE16-92C33830C9B0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S83">
+    <sortCondition ref="A1:A83"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5DE25F-8530-4DF2-898B-7CBDD148E502}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1">
+        <v>115.37770999999999</v>
+      </c>
+      <c r="C1">
+        <v>-29.367069999999998</v>
+      </c>
+      <c r="D1">
+        <v>342539.55494708114</v>
+      </c>
+      <c r="E1">
+        <v>6750251.6843969533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2">
+        <v>115.40425999999999</v>
+      </c>
+      <c r="C2">
+        <v>-29.42925</v>
+      </c>
+      <c r="D2">
+        <v>345211.09654199297</v>
+      </c>
+      <c r="E2">
+        <v>6743396.3721350217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3">
-        <v>359206</v>
-      </c>
-      <c r="C3" s="3">
-        <v>6742469</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>102</v>
-      </c>
-      <c r="F3" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="B3">
+        <v>115.47314</v>
+      </c>
+      <c r="C3">
+        <v>-29.469000000000001</v>
+      </c>
+      <c r="D3">
+        <v>351951.11920963583</v>
+      </c>
+      <c r="E3">
+        <v>6739080.7956553698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3">
-        <v>358301</v>
-      </c>
-      <c r="C4" s="3">
-        <v>6730642</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>552</v>
-      </c>
-      <c r="F4" s="3">
-        <v>107</v>
-      </c>
-      <c r="G4" s="3">
-        <v>275</v>
-      </c>
-      <c r="H4" s="3">
-        <v>540</v>
-      </c>
-      <c r="L4" s="3">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="B4">
+        <v>115.46236</v>
+      </c>
+      <c r="C4">
+        <v>-29.540500000000002</v>
+      </c>
+      <c r="D4">
+        <v>351010.48132491135</v>
+      </c>
+      <c r="E4">
+        <v>6731143.3733528964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3">
-        <v>360479</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6739524</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>107</v>
-      </c>
-      <c r="F5" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <v>115.42999</v>
+      </c>
+      <c r="C5">
+        <v>-29.591750000000001</v>
+      </c>
+      <c r="D5">
+        <v>347950.40325725434</v>
+      </c>
+      <c r="E5">
+        <v>6725421.7757437639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3">
-        <v>350894</v>
-      </c>
-      <c r="C6" s="3">
-        <v>6739317</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>137</v>
-      </c>
-      <c r="G6" s="3">
-        <v>31</v>
-      </c>
-      <c r="H6" s="3">
-        <v>137</v>
-      </c>
-      <c r="L6" s="3">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+      <c r="B6">
+        <v>115.42086</v>
+      </c>
+      <c r="C6">
+        <v>-29.643689999999999</v>
+      </c>
+      <c r="D6">
+        <v>347144.50673372275</v>
+      </c>
+      <c r="E6">
+        <v>6719653.6056941263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <v>356027</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6741138</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>141</v>
-      </c>
-      <c r="F7" s="3">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="B7">
+        <v>115.4192</v>
+      </c>
+      <c r="C7">
+        <v>-29.663889999999999</v>
+      </c>
+      <c r="D7">
+        <v>347014.36965068092</v>
+      </c>
+      <c r="E7">
+        <v>6717412.7689635418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3">
-        <v>354316</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6741005</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>187</v>
-      </c>
-      <c r="F8" s="3">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="B8">
+        <v>115.41670999999999</v>
+      </c>
+      <c r="C8">
+        <v>-29.720839999999999</v>
+      </c>
+      <c r="D8">
+        <v>346859.77687185229</v>
+      </c>
+      <c r="E8">
+        <v>6711098.0113305505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3">
-        <v>355982</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6739543</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>206</v>
-      </c>
-      <c r="F9" s="3">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="B9">
+        <v>115.41339000000001</v>
+      </c>
+      <c r="C9">
+        <v>-29.765519999999999</v>
+      </c>
+      <c r="D9">
+        <v>346606.65979857568</v>
+      </c>
+      <c r="E9">
+        <v>6706141.9214928104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3">
-        <v>354668</v>
-      </c>
-      <c r="C10" s="3">
-        <v>6739238</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>159</v>
-      </c>
-      <c r="F10" s="3">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3">
-        <v>358794</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6738631</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
+        <v>122</v>
+      </c>
+      <c r="B10">
+        <v>115.44991</v>
+      </c>
+      <c r="C10">
+        <v>-29.875679999999999</v>
+      </c>
+      <c r="D10">
+        <v>350302.14635974809</v>
+      </c>
+      <c r="E10">
+        <v>6693981.3572777295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA9A541-D37C-4D42-B5FF-56BF6D2F53AA}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3">
-        <v>355503</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6737076</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>224</v>
-      </c>
-      <c r="F12" s="3">
-        <v>195</v>
-      </c>
-      <c r="G12" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>354145</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6742933</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>247</v>
-      </c>
-      <c r="F13" s="3">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3">
-        <v>351540</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6740261</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>206</v>
-      </c>
-      <c r="G14" s="3">
-        <v>67</v>
-      </c>
-      <c r="H14" s="3">
-        <v>201</v>
-      </c>
-      <c r="L14" s="3">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3">
-        <v>351633</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6743138</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>244</v>
-      </c>
-      <c r="F15" s="3">
-        <v>94</v>
-      </c>
-      <c r="G15" s="3">
-        <v>149</v>
-      </c>
-      <c r="H15" s="3">
-        <v>244</v>
-      </c>
-      <c r="L15" s="3">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3">
-        <v>351752</v>
-      </c>
-      <c r="C16" s="3">
-        <v>6735088</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>241</v>
-      </c>
-      <c r="H16" s="3">
-        <v>241</v>
-      </c>
-      <c r="L16" s="3">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3">
-        <v>352933</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6744727</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>245</v>
-      </c>
-      <c r="F17" s="3">
-        <v>183</v>
-      </c>
-      <c r="G17" s="3">
-        <v>241</v>
-      </c>
-      <c r="H17" s="3">
-        <v>244</v>
-      </c>
-      <c r="L17" s="3">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3">
-        <v>353233</v>
-      </c>
-      <c r="C18" s="3">
-        <v>6747056</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>305</v>
-      </c>
-      <c r="F18" s="3">
-        <v>159</v>
-      </c>
-      <c r="G18" s="3">
-        <v>229</v>
-      </c>
-      <c r="H18" s="3">
-        <v>305</v>
-      </c>
-      <c r="L18" s="3">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3">
-        <v>355488</v>
-      </c>
-      <c r="C19" s="3">
-        <v>6732904</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>256</v>
-      </c>
-      <c r="F19" s="3">
-        <v>204</v>
-      </c>
-      <c r="G19" s="3">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="3">
-        <v>362383</v>
-      </c>
-      <c r="C20" s="3">
-        <v>6720858</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>302</v>
-      </c>
-      <c r="F20" s="3">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3">
-        <v>349202</v>
-      </c>
-      <c r="C21" s="3">
-        <v>6746453</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>303</v>
-      </c>
-      <c r="F21" s="3">
-        <v>85</v>
-      </c>
-      <c r="G21" s="3">
-        <v>137</v>
-      </c>
-      <c r="H21" s="3">
-        <v>303</v>
-      </c>
-      <c r="L21" s="3">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3">
-        <v>350163</v>
-      </c>
-      <c r="C22" s="3">
-        <v>6736093</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>221</v>
-      </c>
-      <c r="H22" s="3">
-        <v>221</v>
-      </c>
-      <c r="L22" s="3">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3">
-        <v>359750</v>
-      </c>
-      <c r="C23" s="3">
-        <v>6735766</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>159</v>
-      </c>
-      <c r="F23" s="3">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="3">
-        <v>341210</v>
-      </c>
-      <c r="C24" s="3">
-        <v>6691431</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="3">
-        <v>333143</v>
-      </c>
-      <c r="C25" s="3">
-        <v>6752581</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>481</v>
-      </c>
-      <c r="H25" s="3">
-        <v>484</v>
-      </c>
-      <c r="L25" s="3">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3">
-        <v>344970</v>
-      </c>
-      <c r="C26" s="3">
-        <v>6752754</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>501</v>
-      </c>
-      <c r="F26" s="3">
-        <v>25</v>
-      </c>
-      <c r="G26" s="3">
-        <v>90</v>
-      </c>
-      <c r="H26" s="3">
-        <v>511</v>
-      </c>
-      <c r="L26" s="3">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3">
-        <v>356890</v>
-      </c>
-      <c r="C27" s="3">
-        <v>6752577</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>399</v>
-      </c>
-      <c r="F27" s="3">
-        <v>199</v>
-      </c>
-      <c r="G27" s="3">
-        <v>229</v>
-      </c>
-      <c r="H27" s="3">
-        <v>399</v>
-      </c>
-      <c r="L27" s="3">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="3">
-        <v>334610</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6721529</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3853</v>
-      </c>
-      <c r="H28" s="3">
-        <v>220</v>
-      </c>
-      <c r="I28" s="3">
-        <v>613</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1012</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1642</v>
-      </c>
-      <c r="M28" s="3">
-        <v>1713</v>
-      </c>
-      <c r="N28" s="3">
-        <v>2508</v>
-      </c>
-      <c r="O28" s="3">
-        <v>3363</v>
-      </c>
-      <c r="P28" s="3">
-        <v>3562</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>3743</v>
-      </c>
-      <c r="R28" s="3">
-        <v>3853</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="3">
-        <v>367798</v>
-      </c>
-      <c r="C29" s="3">
-        <v>6695215</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>70</v>
-      </c>
-      <c r="F29" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="3">
-        <v>367807</v>
-      </c>
-      <c r="C30" s="3">
-        <v>6695161</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>105</v>
-      </c>
-      <c r="F30" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3">
-        <v>338583</v>
-      </c>
-      <c r="C31" s="3">
-        <v>6727776</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>4179</v>
-      </c>
-      <c r="H31" s="3">
-        <v>324</v>
-      </c>
-      <c r="I31" s="3">
-        <v>565</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1168</v>
-      </c>
-      <c r="K31" s="3">
-        <v>1750</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1750</v>
-      </c>
-      <c r="M31" s="3">
-        <v>1857</v>
-      </c>
-      <c r="N31" s="3">
-        <v>2310</v>
-      </c>
-      <c r="O31" s="3">
-        <v>2978</v>
-      </c>
-      <c r="P31" s="3">
-        <v>3255</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>3402</v>
-      </c>
-      <c r="R31" s="3">
-        <v>4179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="3">
-        <v>370634</v>
-      </c>
-      <c r="C32" s="3">
-        <v>6702762</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>751</v>
-      </c>
-      <c r="F32" s="3">
-        <v>291</v>
-      </c>
-      <c r="G32" s="3">
-        <v>357</v>
-      </c>
-      <c r="H32" s="3">
-        <v>750</v>
-      </c>
-      <c r="L32" s="3">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="3">
-        <v>364325</v>
-      </c>
-      <c r="C33" s="3">
-        <v>6702687</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>762</v>
-      </c>
-      <c r="F33" s="3">
-        <v>378</v>
-      </c>
-      <c r="G33" s="3">
-        <v>480</v>
-      </c>
-      <c r="H33" s="3">
-        <v>760</v>
-      </c>
-      <c r="L33" s="3">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="3">
-        <v>357884</v>
-      </c>
-      <c r="C34" s="3">
-        <v>6702360</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>762</v>
-      </c>
-      <c r="F34" s="3">
-        <v>434</v>
-      </c>
-      <c r="G34" s="3">
-        <v>528</v>
-      </c>
-      <c r="H34" s="3">
-        <v>760</v>
-      </c>
-      <c r="L34" s="3">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3">
-        <v>350593</v>
-      </c>
-      <c r="C35" s="3">
-        <v>6702012</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>792</v>
-      </c>
-      <c r="F35" s="3">
-        <v>216</v>
-      </c>
-      <c r="G35" s="3">
-        <v>296</v>
-      </c>
-      <c r="H35" s="3">
-        <v>747</v>
-      </c>
-      <c r="L35" s="3">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="3">
-        <v>344497</v>
-      </c>
-      <c r="C36" s="3">
-        <v>6701564</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>718</v>
-      </c>
-      <c r="H36" s="3">
-        <v>716</v>
-      </c>
-      <c r="L36" s="3">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="3">
-        <v>338577</v>
-      </c>
-      <c r="C37" s="3">
-        <v>6702915</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>763</v>
-      </c>
-      <c r="J37" s="3">
-        <v>418</v>
-      </c>
-      <c r="K37" s="3">
-        <v>760</v>
-      </c>
-      <c r="L37" s="3">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="3">
-        <v>344612</v>
-      </c>
-      <c r="C38" s="3">
-        <v>6749291</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>4244</v>
-      </c>
-      <c r="H38" s="3">
-        <v>800</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1212</v>
-      </c>
-      <c r="J38" s="3">
-        <v>1535</v>
-      </c>
-      <c r="K38" s="3">
-        <v>2019</v>
-      </c>
-      <c r="L38" s="3">
-        <v>2019</v>
-      </c>
-      <c r="M38" s="3">
-        <v>2058</v>
-      </c>
-      <c r="N38" s="3">
-        <v>2804</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>3362</v>
-      </c>
-      <c r="R38" s="3">
-        <v>3905</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="3">
-        <v>344609</v>
-      </c>
-      <c r="C39" s="3">
-        <v>6749507</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>3577</v>
-      </c>
-      <c r="L39" s="3">
-        <v>2023</v>
-      </c>
-      <c r="M39" s="3">
-        <v>2084</v>
-      </c>
-      <c r="N39" s="3">
-        <v>2090</v>
-      </c>
-      <c r="O39" s="3">
-        <v>2794</v>
-      </c>
-      <c r="P39" s="3">
-        <v>3391</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>3532</v>
-      </c>
-      <c r="R39" s="3">
-        <v>3577</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="3">
-        <v>334872</v>
-      </c>
-      <c r="C40" s="3">
-        <v>6749575</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>340</v>
-      </c>
-      <c r="H40" s="3">
-        <v>340</v>
-      </c>
-      <c r="L40" s="3">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="3">
-        <v>363140</v>
-      </c>
-      <c r="C41" s="3">
-        <v>6720750</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>140</v>
-      </c>
-      <c r="F41" s="3">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="3">
-        <v>336095</v>
-      </c>
-      <c r="C42" s="3">
-        <v>6743648</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>4065</v>
-      </c>
-      <c r="H42" s="3">
-        <v>600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>890</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1355</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1906</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1906</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1977</v>
+      <c r="B2">
+        <v>350000</v>
+      </c>
+      <c r="C2">
+        <v>6715000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3">
+        <v>350000</v>
+      </c>
+      <c r="C3">
+        <v>6740000</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_geology/Otorowiri_Model_Geology.xlsx
+++ b/Data/Data_geology/Otorowiri_Model_Geology.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00105010\Projects\Otorowiri\data\data_geology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00105295\Projects\Otorowiri\Data\Data_geology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA952B40-102B-48C5-9690-4382A37EC89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9BE01C-49C9-4FCE-BFB9-61FEBACB9E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="6" xr2:uid="{F0865505-9651-490B-8489-90EAB7C11998}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18430" windowHeight="11020" firstSheet="2" activeTab="2" xr2:uid="{F0865505-9651-490B-8489-90EAB7C11998}"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="130">
   <si>
     <t>Dongara Line DL3A</t>
   </si>
@@ -422,6 +422,21 @@
   </si>
   <si>
     <t>Mapping Kpo outcrop</t>
+  </si>
+  <si>
+    <t>iconvert</t>
+  </si>
+  <si>
+    <t>hk</t>
+  </si>
+  <si>
+    <t>vk</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>sy</t>
   </si>
 </sst>
 </file>
@@ -534,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -591,6 +606,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,7 +932,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="53.6328125" customWidth="1"/>
+    <col min="2" max="2" width="53.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1103,18 +1122,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4789AD-4A52-4EB4-A331-3432CA489414}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="9" max="13" width="9.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>94</v>
       </c>
@@ -1139,8 +1159,23 @@
       <c r="H1" s="13" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>102</v>
       </c>
@@ -1165,8 +1200,9 @@
       <c r="H2" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>104</v>
       </c>
@@ -1192,8 +1228,23 @@
         <f>F2-F3</f>
         <v>175.74074074074073</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" s="22">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3" s="23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>104</v>
       </c>
@@ -1219,8 +1270,23 @@
         <f>F3-F4</f>
         <v>59.321759259259267</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>104</v>
       </c>
@@ -1246,8 +1312,23 @@
         <f t="shared" ref="H5:H14" si="0">F4-F5</f>
         <v>201.76358695652175</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5" s="23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>104</v>
       </c>
@@ -1273,8 +1354,23 @@
         <f t="shared" si="0"/>
         <v>383.17391304347825</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6" s="23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>104</v>
       </c>
@@ -1300,8 +1396,23 @@
         <f t="shared" si="0"/>
         <v>277.59999999999991</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7" s="23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>104</v>
       </c>
@@ -1327,8 +1438,23 @@
         <f t="shared" si="0"/>
         <v>585.73333333333335</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8" s="23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>104</v>
       </c>
@@ -1354,8 +1480,23 @@
         <f t="shared" si="0"/>
         <v>254.4666666666667</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9" s="23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>104</v>
       </c>
@@ -1381,8 +1522,23 @@
         <f t="shared" si="0"/>
         <v>490.20000000000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10" s="23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>104</v>
       </c>
@@ -1408,8 +1564,23 @@
         <f t="shared" si="0"/>
         <v>617</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" s="23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>104</v>
       </c>
@@ -1435,8 +1606,23 @@
         <f t="shared" si="0"/>
         <v>357.66666666666652</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12" s="23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>104</v>
       </c>
@@ -1462,8 +1648,23 @@
         <f t="shared" si="0"/>
         <v>107.08333333333348</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13" s="23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>104</v>
       </c>
@@ -1489,6 +1690,45 @@
         <f t="shared" si="0"/>
         <v>368.75</v>
       </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14" s="23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I15" s="6"/>
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I16" s="6"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I17" s="6"/>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I18" s="6"/>
+      <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I19" s="6"/>
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I20" s="6"/>
+      <c r="L20" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1505,7 +1745,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
     <col min="2" max="2" width="8.54296875" style="3" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" customWidth="1"/>
@@ -3988,7 +4228,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
     <col min="2" max="2" width="8.54296875" style="3" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
@@ -5547,13 +5787,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED891851-15F7-4B61-A48B-7C8AA2AA41A2}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
     <col min="2" max="2" width="8.54296875" style="3" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
@@ -7019,8 +7259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3CA644-E985-404A-BE16-92C33830C9B0}">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7108,7 +7348,8 @@
         <v>109</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A2,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>209</v>
       </c>
       <c r="G2" s="3">
         <v>167</v>
@@ -7134,7 +7375,8 @@
         <v>109</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A3,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>209</v>
       </c>
       <c r="G3" s="3">
         <v>167</v>
@@ -7160,7 +7402,8 @@
         <v>109</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A4,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>256</v>
       </c>
       <c r="G4" s="3">
         <v>102</v>
@@ -7183,7 +7426,8 @@
         <v>109</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A5,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>256</v>
       </c>
       <c r="G5" s="3">
         <v>102</v>
@@ -7206,7 +7450,8 @@
         <v>109</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A6,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>311</v>
       </c>
       <c r="G6" s="3">
         <v>107</v>
@@ -7238,7 +7483,8 @@
         <v>109</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A7,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>311</v>
       </c>
       <c r="G7" s="3">
         <v>107</v>
@@ -7268,7 +7514,8 @@
         <v>109</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A8,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>228</v>
       </c>
       <c r="G8" s="3">
         <v>107</v>
@@ -7291,7 +7538,8 @@
         <v>109</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A9,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>228</v>
       </c>
       <c r="G9" s="3">
         <v>107</v>
@@ -7314,7 +7562,8 @@
         <v>109</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A10,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>203</v>
       </c>
       <c r="H10" s="3">
         <v>31</v>
@@ -7343,7 +7592,8 @@
         <v>109</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A11,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>203</v>
       </c>
       <c r="G11" s="21">
         <v>0</v>
@@ -7373,7 +7623,8 @@
         <v>109</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A12,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>222</v>
       </c>
       <c r="G12" s="3">
         <v>137</v>
@@ -7396,7 +7647,8 @@
         <v>109</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A13,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>222</v>
       </c>
       <c r="G13" s="3">
         <v>137</v>
@@ -7419,7 +7671,8 @@
         <v>109</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A14,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>208</v>
       </c>
       <c r="G14" s="3">
         <v>183</v>
@@ -7442,7 +7695,8 @@
         <v>109</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A15,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>208</v>
       </c>
       <c r="G15" s="3">
         <v>183</v>
@@ -7465,7 +7719,8 @@
         <v>109</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A16,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>227</v>
       </c>
       <c r="G16" s="3">
         <v>195</v>
@@ -7488,7 +7743,8 @@
         <v>109</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A17,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>227</v>
       </c>
       <c r="G17" s="3">
         <v>195</v>
@@ -7511,7 +7767,8 @@
         <v>109</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A18,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="G18" s="3">
         <v>152</v>
@@ -7534,7 +7791,8 @@
         <v>109</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A19,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="G19" s="3">
         <v>152</v>
@@ -7557,7 +7815,8 @@
         <v>109</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A20,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>222</v>
       </c>
       <c r="G20" s="3">
         <v>110</v>
@@ -7580,7 +7839,8 @@
         <v>109</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A21,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>222</v>
       </c>
       <c r="G21" s="3">
         <v>110</v>
@@ -7603,7 +7863,8 @@
         <v>109</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A22,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>272</v>
       </c>
       <c r="G22" s="3">
         <v>195</v>
@@ -7629,7 +7890,8 @@
         <v>109</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A23,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>272</v>
       </c>
       <c r="G23" s="3">
         <v>195</v>
@@ -7655,7 +7917,8 @@
         <v>109</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A24,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>265</v>
       </c>
       <c r="G24" s="3">
         <v>247</v>
@@ -7678,7 +7941,8 @@
         <v>109</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A25,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>265</v>
       </c>
       <c r="G25" s="3">
         <v>247</v>
@@ -7701,7 +7965,8 @@
         <v>109</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A26,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>222</v>
       </c>
       <c r="H26" s="3">
         <v>67</v>
@@ -7730,7 +7995,8 @@
         <v>109</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A27,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>222</v>
       </c>
       <c r="G27" s="21">
         <v>0</v>
@@ -7760,7 +8026,8 @@
         <v>109</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A28,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>276</v>
       </c>
       <c r="G28" s="3">
         <v>94</v>
@@ -7792,7 +8059,8 @@
         <v>109</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A29,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>276</v>
       </c>
       <c r="G29" s="3">
         <v>94</v>
@@ -7822,7 +8090,8 @@
         <v>109</v>
       </c>
       <c r="F30" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A30,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>184</v>
       </c>
       <c r="I30" s="3">
         <v>241</v>
@@ -7848,7 +8117,8 @@
         <v>109</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A31,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>184</v>
       </c>
       <c r="G31" s="21">
         <v>0</v>
@@ -7878,7 +8148,8 @@
         <v>109</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A32,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>283</v>
       </c>
       <c r="G32" s="3">
         <v>183</v>
@@ -7910,7 +8181,8 @@
         <v>109</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A33,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>283</v>
       </c>
       <c r="G33" s="3">
         <v>183</v>
@@ -7940,7 +8212,8 @@
         <v>109</v>
       </c>
       <c r="F34" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A34,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>267</v>
       </c>
       <c r="G34" s="3">
         <v>159</v>
@@ -7972,7 +8245,8 @@
         <v>109</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A35,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>267</v>
       </c>
       <c r="G35" s="3">
         <v>159</v>
@@ -8002,7 +8276,8 @@
         <v>109</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A36,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>306</v>
       </c>
       <c r="G36" s="3">
         <v>204</v>
@@ -8028,7 +8303,8 @@
         <v>109</v>
       </c>
       <c r="F37" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A37,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>306</v>
       </c>
       <c r="G37" s="3">
         <v>204</v>
@@ -8055,7 +8331,8 @@
         <v>109</v>
       </c>
       <c r="F38" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A38,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>280</v>
       </c>
       <c r="G38" s="3">
         <v>302</v>
@@ -8078,7 +8355,8 @@
         <v>109</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A39,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>280</v>
       </c>
       <c r="G39" s="3">
         <v>302</v>
@@ -8101,7 +8379,8 @@
         <v>109</v>
       </c>
       <c r="F40" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A40,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>258</v>
       </c>
       <c r="G40" s="3">
         <v>85</v>
@@ -8133,7 +8412,8 @@
         <v>109</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A41,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>258</v>
       </c>
       <c r="G41" s="3">
         <v>85</v>
@@ -8163,7 +8443,8 @@
         <v>109</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A42,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>169</v>
       </c>
       <c r="I42" s="3">
         <v>221</v>
@@ -8189,7 +8470,8 @@
         <v>109</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A43,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>169</v>
       </c>
       <c r="G43" s="21">
         <v>0</v>
@@ -8219,7 +8501,8 @@
         <v>109</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A44,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>231</v>
       </c>
       <c r="G44" s="3">
         <v>158</v>
@@ -8242,7 +8525,8 @@
         <v>109</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A45,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>231</v>
       </c>
       <c r="G45" s="3">
         <v>158</v>
@@ -8266,7 +8550,8 @@
         <v>109</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A46,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>193</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
@@ -8292,7 +8577,8 @@
         <v>109</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A47,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>193</v>
       </c>
       <c r="G47" s="21">
         <v>0</v>
@@ -8322,7 +8608,8 @@
         <v>109</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A48,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>128</v>
       </c>
       <c r="I48" s="3">
         <v>484</v>
@@ -8348,7 +8635,8 @@
         <v>109</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A49,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>128</v>
       </c>
       <c r="G49" s="21">
         <v>0</v>
@@ -8378,7 +8666,8 @@
         <v>109</v>
       </c>
       <c r="F50" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A50,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>258</v>
       </c>
       <c r="G50" s="3">
         <v>25</v>
@@ -8410,7 +8699,8 @@
         <v>109</v>
       </c>
       <c r="F51" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A51,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>258</v>
       </c>
       <c r="G51" s="3">
         <v>25</v>
@@ -8440,7 +8730,8 @@
         <v>109</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A52,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>299</v>
       </c>
       <c r="G52" s="3">
         <v>199</v>
@@ -8472,7 +8763,8 @@
         <v>109</v>
       </c>
       <c r="F53" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A53,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>299</v>
       </c>
       <c r="G53" s="3">
         <v>199</v>
@@ -8502,7 +8794,8 @@
         <v>109</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A54,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>107</v>
       </c>
       <c r="I54" s="3">
         <v>220</v>
@@ -8555,7 +8848,8 @@
         <v>109</v>
       </c>
       <c r="F55" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A55,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>107</v>
       </c>
       <c r="G55" s="21">
         <v>0</v>
@@ -8612,7 +8906,8 @@
         <v>109</v>
       </c>
       <c r="F56" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A56,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>280</v>
       </c>
       <c r="G56" s="3">
         <v>70</v>
@@ -8635,7 +8930,8 @@
         <v>109</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A57,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>280</v>
       </c>
       <c r="G57" s="3">
         <v>70</v>
@@ -8658,7 +8954,8 @@
         <v>109</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A58,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>281</v>
       </c>
       <c r="G58" s="3">
         <v>105</v>
@@ -8681,7 +8978,8 @@
         <v>109</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A59,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>281</v>
       </c>
       <c r="G59" s="3">
         <v>105</v>
@@ -8704,7 +9002,8 @@
         <v>109</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A60,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>123</v>
       </c>
       <c r="I60" s="3">
         <v>324</v>
@@ -8757,7 +9056,8 @@
         <v>109</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A61,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>123</v>
       </c>
       <c r="G61" s="21">
         <v>0</v>
@@ -8814,7 +9114,8 @@
         <v>109</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A62,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>257</v>
       </c>
       <c r="G62" s="3">
         <v>291</v>
@@ -8846,7 +9147,8 @@
         <v>109</v>
       </c>
       <c r="F63" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A63,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>257</v>
       </c>
       <c r="G63" s="3">
         <v>291</v>
@@ -8876,7 +9178,8 @@
         <v>109</v>
       </c>
       <c r="F64" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A64,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>264</v>
       </c>
       <c r="G64" s="3">
         <v>378</v>
@@ -8908,7 +9211,8 @@
         <v>109</v>
       </c>
       <c r="F65" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A65,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>264</v>
       </c>
       <c r="G65" s="3">
         <v>378</v>
@@ -8938,7 +9242,8 @@
         <v>109</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A66,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>295</v>
       </c>
       <c r="G66" s="3">
         <v>434</v>
@@ -8970,7 +9275,8 @@
         <v>109</v>
       </c>
       <c r="F67" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A67,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>295</v>
       </c>
       <c r="G67" s="3">
         <v>434</v>
@@ -9000,7 +9306,8 @@
         <v>109</v>
       </c>
       <c r="F68" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A68,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>254</v>
       </c>
       <c r="G68" s="3">
         <v>216</v>
@@ -9032,7 +9339,8 @@
         <v>109</v>
       </c>
       <c r="F69" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A69,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>254</v>
       </c>
       <c r="G69" s="3">
         <v>216</v>
@@ -9062,7 +9370,8 @@
         <v>109</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A70,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>201</v>
       </c>
       <c r="I70" s="3">
         <v>716</v>
@@ -9088,7 +9397,8 @@
         <v>109</v>
       </c>
       <c r="F71" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A71,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>201</v>
       </c>
       <c r="G71" s="21">
         <v>0</v>
@@ -9118,7 +9428,8 @@
         <v>109</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A72,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>139</v>
       </c>
       <c r="K72" s="3">
         <v>418</v>
@@ -9147,7 +9458,8 @@
         <v>109</v>
       </c>
       <c r="F73" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A73,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>139</v>
       </c>
       <c r="G73" s="21">
         <v>0</v>
@@ -9186,7 +9498,8 @@
         <v>109</v>
       </c>
       <c r="F74" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A74,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>233</v>
       </c>
       <c r="I74" s="3">
         <v>800</v>
@@ -9233,7 +9546,8 @@
         <v>109</v>
       </c>
       <c r="F75" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A75,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>233</v>
       </c>
       <c r="I75" s="3">
         <v>800</v>
@@ -9278,7 +9592,8 @@
         <v>109</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A76,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>241</v>
       </c>
       <c r="L76" s="11">
         <v>2023</v>
@@ -9322,7 +9637,8 @@
         <v>109</v>
       </c>
       <c r="F77" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A77,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>241</v>
       </c>
       <c r="L77" s="16">
         <v>2023</v>
@@ -9364,7 +9680,8 @@
         <v>109</v>
       </c>
       <c r="F78" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A78,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>148</v>
       </c>
       <c r="I78" s="3">
         <v>340</v>
@@ -9390,7 +9707,8 @@
         <v>109</v>
       </c>
       <c r="F79" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A79,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>148</v>
       </c>
       <c r="G79" s="21">
         <v>0</v>
@@ -9420,7 +9738,8 @@
         <v>109</v>
       </c>
       <c r="F80" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A80,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>266</v>
       </c>
       <c r="G80" s="3">
         <v>140</v>
@@ -9443,7 +9762,8 @@
         <v>109</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A81,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>266</v>
       </c>
       <c r="G81" s="3">
         <v>140</v>
@@ -9467,7 +9787,8 @@
         <v>109</v>
       </c>
       <c r="F82" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A82,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>220</v>
       </c>
       <c r="I82" s="3">
         <v>600</v>
@@ -9505,7 +9826,8 @@
         <v>109</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <f>VLOOKUP(A83,mAHD!$A$2:$D$42,4,FALSE)</f>
+        <v>220</v>
       </c>
       <c r="G83" s="21">
         <v>0</v>
@@ -9809,7 +10131,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
